--- a/code/backend/010.codegen/model/app.service.xlsx
+++ b/code/backend/010.codegen/model/app.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="203">
   <si>
     <t>#变量名</t>
   </si>
@@ -146,7 +146,7 @@
     <t>phone</t>
   </si>
   <si>
-    <t>builder/app-status</t>
+    <t>app/app-status</t>
   </si>
   <si>
     <t>值类型</t>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>已启用</t>
+  </si>
+  <si>
+    <t>app/service-status</t>
+  </si>
+  <si>
+    <t>服务状态</t>
+  </si>
+  <si>
+    <t>Service Status</t>
   </si>
   <si>
     <t>填写说明</t>
@@ -633,12 +642,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,26 +662,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -683,25 +677,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,9 +722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,8 +752,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,10 +768,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,8 +790,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,13 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +942,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,37 +984,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,49 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,21 +1323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1350,6 +1337,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,26 +1367,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1400,6 +1378,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,160 +1405,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,9 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="14" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1746,9 +1745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1776,21 +1772,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1827,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,120 +2191,120 @@
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="92" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="33" spans="1:3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="92" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="92" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="92"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" spans="1:3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="92" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="13.5" customHeight="1" spans="1:3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2518,13 +2505,13 @@
       <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2535,180 +2522,335 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="9" style="73"/>
-    <col min="3" max="3" width="13.5" style="73" customWidth="1"/>
-    <col min="4" max="4" width="15" style="73" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="73" customWidth="1"/>
-    <col min="6" max="6" width="9" style="73"/>
-    <col min="7" max="7" width="21.875" style="73" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="73"/>
+    <col min="1" max="2" width="9" style="68"/>
+    <col min="3" max="3" width="13.5" style="68" customWidth="1"/>
+    <col min="4" max="4" width="15" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="68" customWidth="1"/>
+    <col min="6" max="6" width="9" style="68"/>
+    <col min="7" max="7" width="21.875" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="74">
+      <c r="A1" s="69">
         <v>1</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="89" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="86" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="78"/>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="89" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="79" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="78"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="57"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="92"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="87"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="78"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="79">
         <v>-1</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="78"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="79">
         <v>0</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="78"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="79">
         <v>1</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="78"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="94"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="89"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="69">
+        <v>1</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="73"/>
+      <c r="B12" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="73"/>
+      <c r="B13" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="87"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="73"/>
+      <c r="B15" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="73"/>
+      <c r="B16" s="11">
+        <v>1</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="79">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="73"/>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="79">
+        <v>0</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="73"/>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="79">
+        <v>1</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="73"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="A1:A10"/>
+    <mergeCell ref="A11:A20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2720,8 +2862,8 @@
   <sheetPr/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2742,12 +2884,12 @@
   <sheetData>
     <row r="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -2759,24 +2901,24 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -2784,7 +2926,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="62"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -2793,12 +2935,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -2807,7 +2949,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
@@ -2816,12 +2958,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -2830,11 +2972,11 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2849,7 +2991,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9"/>
@@ -2870,7 +3012,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2889,16 +3031,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
@@ -2907,13 +3049,13 @@
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -2922,16 +3064,16 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -2939,32 +3081,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>32</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -2974,10 +3116,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -2991,9 +3133,9 @@
         <v>50</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="51"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3003,26 +3145,26 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="11"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -3030,21 +3172,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -3053,43 +3195,43 @@
         <v>50</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="63"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="63"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:15">
       <c r="A14" s="16">
@@ -3098,29 +3240,29 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="18">
         <v>0</v>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="64"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A15" s="13">
@@ -3129,7 +3271,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>5</v>
@@ -3137,21 +3279,21 @@
       <c r="F15" s="42"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <v>100</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="51"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="63"/>
+      <c r="N15" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="61"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="49.5" spans="1:15">
       <c r="A16" s="13">
@@ -3160,7 +3302,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>49</v>
@@ -3168,52 +3310,52 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>50</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="O16" s="63"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="33" spans="1:15">
+      <c r="N16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="61"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A17" s="13">
         <v>9</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="50"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="52" t="s">
+      <c r="L17" s="51" t="s">
         <v>41</v>
       </c>
       <c r="M17" s="15">
         <v>-1</v>
       </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="63"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A18" s="13">
@@ -3222,27 +3364,27 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <v>50</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="52"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="63"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A19" s="11">
@@ -3251,26 +3393,26 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>200</v>
       </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3280,24 +3422,24 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>200</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3307,26 +3449,26 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>200</v>
       </c>
       <c r="K21" s="11"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3336,7 +3478,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>2</v>
@@ -3344,16 +3486,16 @@
       <c r="F22" s="41"/>
       <c r="G22" s="7"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="49">
         <v>2000</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="51"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3363,24 +3505,24 @@
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="7"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="49">
         <v>2000</v>
       </c>
       <c r="K23" s="11"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3390,24 +3532,24 @@
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="71"/>
+        <v>117</v>
+      </c>
+      <c r="F24" s="67"/>
       <c r="G24" s="7"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="49">
         <v>2000</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="51"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3419,12 +3561,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="50"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="51"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="51"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="11"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -3436,12 +3578,12 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="50"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="51"/>
+      <c r="L26" s="50"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="51"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="11"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:15">
@@ -3456,9 +3598,9 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="51"/>
+      <c r="L27" s="50"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="51"/>
+      <c r="N27" s="50"/>
       <c r="O27" s="11"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
@@ -3476,11 +3618,11 @@
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
-      <c r="O28" s="65"/>
+      <c r="O28" s="63"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3495,18 +3637,18 @@
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="66"/>
+      <c r="O29" s="64"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:15">
       <c r="A30" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>44</v>
@@ -3515,17 +3657,17 @@
         <v>46</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
+        <v>121</v>
+      </c>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
       <c r="O30" s="28"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:15">
@@ -3533,76 +3675,76 @@
         <v>1</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="57"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:15">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="57"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:15">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="57"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:15">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="57"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="30"/>
@@ -3619,11 +3761,11 @@
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
-      <c r="O35" s="67"/>
+      <c r="O35" s="65"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3643,19 +3785,19 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="7"/>
@@ -3672,13 +3814,13 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
@@ -3695,7 +3837,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3710,7 +3852,7 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
@@ -3720,7 +3862,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
@@ -3731,7 +3873,7 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -3740,12 +3882,12 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="60"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="58"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
@@ -3753,18 +3895,18 @@
         <v>23</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -3800,15 +3942,15 @@
       <c r="D44" s="36"/>
       <c r="E44" s="11"/>
       <c r="F44" s="35"/>
-      <c r="G44" s="48"/>
+      <c r="G44" s="47"/>
       <c r="H44" s="35"/>
-      <c r="I44" s="48"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="35"/>
-      <c r="K44" s="48"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="35"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="48"/>
+      <c r="O44" s="47"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="37"/>
@@ -3817,32 +3959,32 @@
       <c r="D45" s="36"/>
       <c r="E45" s="11"/>
       <c r="F45" s="35"/>
-      <c r="G45" s="48"/>
+      <c r="G45" s="47"/>
       <c r="H45" s="35"/>
-      <c r="I45" s="48"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="35"/>
-      <c r="K45" s="48"/>
+      <c r="K45" s="47"/>
       <c r="L45" s="35"/>
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
-      <c r="O45" s="48"/>
+      <c r="O45" s="47"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
@@ -3859,13 +4001,13 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
@@ -3882,7 +4024,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -3897,7 +4039,7 @@
     <row r="49" s="1" customFormat="1" spans="1:15">
       <c r="A49" s="32"/>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
@@ -3907,7 +4049,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="7"/>
@@ -3918,7 +4060,7 @@
     <row r="50" s="1" customFormat="1" spans="1:15">
       <c r="A50" s="32"/>
       <c r="B50" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -3927,12 +4069,12 @@
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="60"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="58"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:15">
       <c r="A51" s="32"/>
@@ -3940,18 +4082,18 @@
         <v>23</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -3987,15 +4129,15 @@
       <c r="D53" s="36"/>
       <c r="E53" s="11"/>
       <c r="F53" s="35"/>
-      <c r="G53" s="48"/>
+      <c r="G53" s="47"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="48"/>
+      <c r="I53" s="47"/>
       <c r="J53" s="35"/>
-      <c r="K53" s="48"/>
+      <c r="K53" s="47"/>
       <c r="L53" s="35"/>
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
-      <c r="O53" s="48"/>
+      <c r="O53" s="47"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:15">
       <c r="A54" s="37"/>
@@ -4004,15 +4146,15 @@
       <c r="D54" s="36"/>
       <c r="E54" s="11"/>
       <c r="F54" s="35"/>
-      <c r="G54" s="48"/>
+      <c r="G54" s="47"/>
       <c r="H54" s="35"/>
-      <c r="I54" s="48"/>
+      <c r="I54" s="47"/>
       <c r="J54" s="35"/>
-      <c r="K54" s="48"/>
+      <c r="K54" s="47"/>
       <c r="L54" s="35"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="48"/>
+      <c r="O54" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -4170,12 +4312,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -4187,24 +4329,24 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -4212,7 +4354,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="62"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -4221,12 +4363,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -4235,7 +4377,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
@@ -4244,12 +4386,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -4258,16 +4400,16 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -4279,7 +4421,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9"/>
@@ -4300,7 +4442,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -4319,16 +4461,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
@@ -4337,13 +4479,13 @@
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -4352,16 +4494,16 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4369,32 +4511,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>32</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4404,26 +4546,26 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="44"/>
+        <v>142</v>
+      </c>
+      <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <v>32</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -4432,10 +4574,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -4443,21 +4585,21 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="49">
         <v>100</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="52"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="63"/>
+      <c r="N11" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" spans="1:15">
       <c r="A12" s="13">
@@ -4465,8 +4607,8 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="72" t="s">
-        <v>98</v>
+      <c r="D12" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>49</v>
@@ -4474,21 +4616,21 @@
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="49">
         <v>50</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="O12" s="63"/>
+      <c r="N12" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A13" s="11">
@@ -4496,8 +4638,8 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="72" t="s">
-        <v>142</v>
+      <c r="D13" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -4505,18 +4647,18 @@
       <c r="F13" s="41"/>
       <c r="G13" s="7"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="49" t="s">
+      <c r="I13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <v>50</v>
       </c>
       <c r="K13" s="11"/>
-      <c r="L13" s="72" t="s">
-        <v>143</v>
+      <c r="L13" s="44" t="s">
+        <v>146</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="51"/>
+      <c r="N13" s="50"/>
       <c r="O13" s="11"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4525,29 +4667,29 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="72" t="s">
-        <v>144</v>
+      <c r="D14" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>50</v>
       </c>
       <c r="K14" s="11"/>
-      <c r="L14" s="72" t="s">
-        <v>146</v>
+      <c r="L14" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="M14" s="7"/>
-      <c r="N14" s="51"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="11"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4556,23 +4698,23 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="72" t="s">
-        <v>147</v>
+      <c r="D15" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="7"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="51"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="51"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4581,8 +4723,8 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="72" t="s">
-        <v>149</v>
+      <c r="D16" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>27</v>
@@ -4590,14 +4732,14 @@
       <c r="F16" s="41"/>
       <c r="G16" s="7"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="51"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="51"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4609,12 +4751,12 @@
       <c r="F17" s="41"/>
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4623,15 +4765,15 @@
       <c r="C18" s="12"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="7"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="51"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="51"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4643,12 +4785,12 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -4660,12 +4802,12 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:15">
@@ -4680,9 +4822,9 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:15">
@@ -4700,11 +4842,11 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="65"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:15">
       <c r="A23" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4719,18 +4861,18 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="66"/>
+      <c r="O23" s="64"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
       <c r="A24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>44</v>
@@ -4739,17 +4881,17 @@
         <v>46</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+        <v>121</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="28"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
@@ -4757,78 +4899,78 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="57"/>
+        <v>153</v>
+      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="57"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:15">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="57"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="57"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="30"/>
@@ -4845,11 +4987,11 @@
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
-      <c r="O29" s="67"/>
+      <c r="O29" s="65"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4869,7 +5011,7 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
@@ -4877,19 +5019,19 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -4904,17 +5046,17 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -4929,7 +5071,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -4944,7 +5086,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -4954,20 +5096,20 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="69"/>
+      <c r="L34" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -4976,12 +5118,12 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="60"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
@@ -4989,18 +5131,18 @@
         <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5016,12 +5158,12 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -5040,15 +5182,15 @@
       <c r="D38" s="36"/>
       <c r="E38" s="11"/>
       <c r="F38" s="35"/>
-      <c r="G38" s="48"/>
+      <c r="G38" s="47"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="48"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="35"/>
-      <c r="K38" s="48"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="35"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
-      <c r="O38" s="48"/>
+      <c r="O38" s="47"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="37"/>
@@ -5057,32 +5199,32 @@
       <c r="D39" s="36"/>
       <c r="E39" s="11"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="35"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="48"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
-      <c r="O39" s="48"/>
+      <c r="O39" s="47"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
@@ -5099,13 +5241,13 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -5122,7 +5264,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -5137,7 +5279,7 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
@@ -5147,7 +5289,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -5158,7 +5300,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5167,12 +5309,12 @@
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="60"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="58"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
@@ -5180,18 +5322,18 @@
         <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5227,15 +5369,15 @@
       <c r="D47" s="36"/>
       <c r="E47" s="11"/>
       <c r="F47" s="35"/>
-      <c r="G47" s="48"/>
+      <c r="G47" s="47"/>
       <c r="H47" s="35"/>
-      <c r="I47" s="48"/>
+      <c r="I47" s="47"/>
       <c r="J47" s="35"/>
-      <c r="K47" s="48"/>
+      <c r="K47" s="47"/>
       <c r="L47" s="35"/>
       <c r="M47" s="36"/>
       <c r="N47" s="36"/>
-      <c r="O47" s="48"/>
+      <c r="O47" s="47"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="37"/>
@@ -5244,15 +5386,15 @@
       <c r="D48" s="36"/>
       <c r="E48" s="11"/>
       <c r="F48" s="35"/>
-      <c r="G48" s="48"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="35"/>
-      <c r="I48" s="48"/>
+      <c r="I48" s="47"/>
       <c r="J48" s="35"/>
-      <c r="K48" s="48"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="35"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="48"/>
+      <c r="O48" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -5409,12 +5551,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -5426,24 +5568,24 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -5451,7 +5593,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="62"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -5460,12 +5602,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -5474,7 +5616,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
@@ -5483,12 +5625,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -5497,16 +5639,16 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -5518,7 +5660,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9"/>
@@ -5539,7 +5681,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5558,16 +5700,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
@@ -5576,13 +5718,13 @@
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -5591,16 +5733,16 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5608,32 +5750,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>32</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5643,26 +5785,26 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="44"/>
+        <v>142</v>
+      </c>
+      <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <v>32</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="54"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -5671,10 +5813,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -5682,21 +5824,21 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="49">
         <v>100</v>
       </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="52"/>
+      <c r="L11" s="51"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="63"/>
+      <c r="N11" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" spans="1:15">
       <c r="A12" s="13">
@@ -5705,7 +5847,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>49</v>
@@ -5713,21 +5855,21 @@
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="49">
         <v>100</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" s="63"/>
+      <c r="N12" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A13" s="13">
@@ -5736,27 +5878,27 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="49">
         <v>50</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="63"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:15">
       <c r="A14" s="11">
@@ -5765,27 +5907,27 @@
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="49">
         <v>2000</v>
       </c>
       <c r="K14" s="11"/>
-      <c r="L14" s="51"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="51" t="s">
-        <v>168</v>
+      <c r="N14" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="O14" s="11"/>
     </row>
@@ -5798,12 +5940,12 @@
       <c r="F15" s="41"/>
       <c r="G15" s="7"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="51"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="51"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="11"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5815,12 +5957,12 @@
       <c r="F16" s="41"/>
       <c r="G16" s="7"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="51"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="51"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5832,12 +5974,12 @@
       <c r="F17" s="41"/>
       <c r="G17" s="7"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="50"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="11"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5849,12 +5991,12 @@
       <c r="F18" s="41"/>
       <c r="G18" s="7"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="51"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="51"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="11"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5863,15 +6005,15 @@
       <c r="C19" s="12"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="50"/>
       <c r="O19" s="11"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5883,12 +6025,12 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="50"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="11"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -5900,12 +6042,12 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="50"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:15">
@@ -5920,9 +6062,9 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="51"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:15">
@@ -5940,11 +6082,11 @@
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
-      <c r="O23" s="65"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
       <c r="A24" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -5959,18 +6101,18 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="66"/>
+      <c r="O24" s="64"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
       <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>44</v>
@@ -5979,17 +6121,17 @@
         <v>46</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
+        <v>121</v>
+      </c>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
       <c r="O25" s="28"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
@@ -5997,78 +6139,78 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="57"/>
+        <v>153</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:15">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="57"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="57"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="57"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="30"/>
@@ -6085,11 +6227,11 @@
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
-      <c r="O30" s="67"/>
+      <c r="O30" s="65"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -6109,7 +6251,7 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
@@ -6117,19 +6259,19 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -6144,17 +6286,17 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -6169,7 +6311,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -6184,7 +6326,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -6194,20 +6336,20 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="69"/>
+      <c r="L35" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="56"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -6216,12 +6358,12 @@
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="60"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
@@ -6229,18 +6371,18 @@
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -6256,12 +6398,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6280,15 +6422,15 @@
       <c r="D39" s="36"/>
       <c r="E39" s="11"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="47"/>
       <c r="H39" s="35"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="48"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="35"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
-      <c r="O39" s="48"/>
+      <c r="O39" s="47"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="37"/>
@@ -6297,32 +6439,32 @@
       <c r="D40" s="36"/>
       <c r="E40" s="11"/>
       <c r="F40" s="35"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="48"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="48"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="35"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="48"/>
+      <c r="O40" s="47"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -6339,13 +6481,13 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -6362,7 +6504,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -6377,7 +6519,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -6387,7 +6529,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -6398,7 +6540,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -6407,12 +6549,12 @@
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="60"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
@@ -6420,18 +6562,18 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6467,15 +6609,15 @@
       <c r="D48" s="36"/>
       <c r="E48" s="11"/>
       <c r="F48" s="35"/>
-      <c r="G48" s="48"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="35"/>
-      <c r="I48" s="48"/>
+      <c r="I48" s="47"/>
       <c r="J48" s="35"/>
-      <c r="K48" s="48"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="35"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="48"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:15">
       <c r="A49" s="37"/>
@@ -6484,15 +6626,15 @@
       <c r="D49" s="36"/>
       <c r="E49" s="11"/>
       <c r="F49" s="35"/>
-      <c r="G49" s="48"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="35"/>
-      <c r="I49" s="48"/>
+      <c r="I49" s="47"/>
       <c r="J49" s="35"/>
-      <c r="K49" s="48"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="35"/>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
-      <c r="O49" s="48"/>
+      <c r="O49" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -6627,8 +6769,8 @@
   <sheetPr/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6650,12 +6792,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -6667,24 +6809,24 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6692,7 +6834,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="62"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -6701,12 +6843,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -6715,7 +6857,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
@@ -6724,12 +6866,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -6738,16 +6880,16 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -6759,7 +6901,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9"/>
@@ -6780,7 +6922,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6799,16 +6941,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
@@ -6817,13 +6959,13 @@
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -6832,16 +6974,16 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -6849,32 +6991,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>32</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -6884,10 +7026,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -6901,9 +7043,9 @@
         <v>50</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="51"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -6913,26 +7055,26 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="11"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -6940,21 +7082,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -6963,43 +7105,43 @@
         <v>50</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="63"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="63"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:15">
       <c r="A14" s="16">
@@ -7008,29 +7150,29 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="18">
         <v>0</v>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="64"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A15" s="19">
@@ -7039,26 +7181,26 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="44"/>
+        <v>142</v>
+      </c>
+      <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <v>32</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="54"/>
+      <c r="L15" s="53"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="19"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -7068,7 +7210,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -7076,19 +7218,19 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>100</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="63"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="49.5" spans="1:15">
       <c r="A17" s="13">
@@ -7097,7 +7239,7 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>49</v>
@@ -7105,21 +7247,21 @@
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <v>100</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="52"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="63"/>
+      <c r="N17" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="33" spans="1:15">
       <c r="A18" s="13">
@@ -7128,29 +7270,29 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="50"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="52" t="s">
-        <v>41</v>
+      <c r="L18" s="51" t="s">
+        <v>57</v>
       </c>
       <c r="M18" s="15">
         <v>-1</v>
       </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="63"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="33" spans="1:15">
       <c r="A19" s="13">
@@ -7159,27 +7301,27 @@
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="49" t="s">
+      <c r="I19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>50</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="52"/>
+      <c r="L19" s="51"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="O19" s="63"/>
+      <c r="N19" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A20" s="11">
@@ -7188,7 +7330,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>2</v>
@@ -7196,16 +7338,16 @@
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>2000</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="50"/>
       <c r="O20" s="11"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7217,12 +7359,12 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="50"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="11"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -7234,12 +7376,12 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="50"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="51"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:15">
@@ -7254,9 +7396,9 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="11"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
@@ -7274,11 +7416,11 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="65"/>
+      <c r="O24" s="63"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
       <c r="A25" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -7293,18 +7435,18 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="66"/>
+      <c r="O25" s="64"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
       <c r="A26" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>44</v>
@@ -7313,17 +7455,17 @@
         <v>46</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
+        <v>121</v>
+      </c>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
       <c r="O26" s="28"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:15">
@@ -7331,78 +7473,78 @@
         <v>1</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="57"/>
+        <v>153</v>
+      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="57"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="57"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:15">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="57"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="30"/>
@@ -7419,11 +7561,11 @@
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
-      <c r="O31" s="67"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -7445,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
@@ -7453,19 +7595,19 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -7480,17 +7622,17 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -7505,7 +7647,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -7520,7 +7662,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -7530,20 +7672,20 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="69"/>
+      <c r="L36" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="56"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -7552,12 +7694,12 @@
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="60"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
@@ -7565,18 +7707,18 @@
         <v>23</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7592,12 +7734,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -7616,15 +7758,15 @@
       <c r="D40" s="36"/>
       <c r="E40" s="11"/>
       <c r="F40" s="35"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="47"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="48"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="48"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="35"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="48"/>
+      <c r="O40" s="47"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="37"/>
@@ -7633,32 +7775,32 @@
       <c r="D41" s="36"/>
       <c r="E41" s="11"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="35"/>
-      <c r="I41" s="48"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="35"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
-      <c r="O41" s="48"/>
+      <c r="O41" s="47"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -7681,7 +7823,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -7692,13 +7834,13 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -7713,7 +7855,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -7723,7 +7865,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="7"/>
@@ -7734,7 +7876,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -7743,12 +7885,12 @@
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="60"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="58"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
@@ -7756,18 +7898,18 @@
         <v>23</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -7803,15 +7945,15 @@
       <c r="D49" s="36"/>
       <c r="E49" s="11"/>
       <c r="F49" s="35"/>
-      <c r="G49" s="48"/>
+      <c r="G49" s="47"/>
       <c r="H49" s="35"/>
-      <c r="I49" s="48"/>
+      <c r="I49" s="47"/>
       <c r="J49" s="35"/>
-      <c r="K49" s="48"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="35"/>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
-      <c r="O49" s="48"/>
+      <c r="O49" s="47"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:15">
       <c r="A50" s="37"/>
@@ -7820,15 +7962,15 @@
       <c r="D50" s="36"/>
       <c r="E50" s="11"/>
       <c r="F50" s="35"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="48"/>
+      <c r="I50" s="47"/>
       <c r="J50" s="35"/>
-      <c r="K50" s="48"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="35"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="48"/>
+      <c r="O50" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -7985,12 +8127,12 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
@@ -8002,24 +8144,24 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
-      <c r="O1" s="61"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8027,7 +8169,7 @@
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
-      <c r="O2" s="62"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -8036,12 +8178,12 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="39"/>
@@ -8050,7 +8192,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="62"/>
+      <c r="O3" s="60"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
@@ -8059,12 +8201,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="39"/>
@@ -8073,16 +8215,16 @@
       <c r="L4" s="39"/>
       <c r="M4" s="39"/>
       <c r="N4" s="39"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -8094,7 +8236,7 @@
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
-      <c r="O5" s="62"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:15">
       <c r="A6" s="9"/>
@@ -8115,7 +8257,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8134,16 +8276,16 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>44</v>
@@ -8152,13 +8294,13 @@
         <v>46</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>26</v>
@@ -8167,16 +8309,16 @@
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8184,32 +8326,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>32</v>
       </c>
       <c r="K9" s="11"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="11"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8219,10 +8361,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -8236,9 +8378,9 @@
         <v>50</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="51"/>
+      <c r="N10" s="50"/>
       <c r="O10" s="11"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8248,26 +8390,26 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="50"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="50"/>
       <c r="O11" s="11"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -8275,21 +8417,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -8298,43 +8440,43 @@
         <v>50</v>
       </c>
       <c r="K12" s="13"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="63"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A13" s="13">
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="51"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="63"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:15">
       <c r="A14" s="16">
@@ -8343,29 +8485,29 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="53"/>
+      <c r="L14" s="52"/>
       <c r="M14" s="18">
         <v>0</v>
       </c>
-      <c r="N14" s="53"/>
-      <c r="O14" s="64"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:15">
       <c r="A15" s="19">
@@ -8374,26 +8516,26 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="F15" s="44"/>
+        <v>188</v>
+      </c>
+      <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <v>32</v>
       </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="54"/>
+      <c r="L15" s="53"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="19"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="16.5" spans="1:15">
@@ -8403,7 +8545,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -8411,19 +8553,19 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="49">
         <v>100</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="51"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="63"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A17" s="13">
@@ -8432,27 +8574,27 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="49">
         <v>100</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="52"/>
+      <c r="L17" s="51"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="63"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="16.5" spans="1:15">
       <c r="A18" s="13">
@@ -8461,27 +8603,27 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="49">
         <v>100</v>
       </c>
       <c r="K18" s="13"/>
-      <c r="L18" s="52"/>
+      <c r="L18" s="51"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="63"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:15">
       <c r="A19" s="11">
@@ -8490,27 +8632,27 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>4000</v>
       </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="50"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="51" t="s">
-        <v>168</v>
+      <c r="N19" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="O19" s="11"/>
     </row>
@@ -8521,25 +8663,25 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="49">
         <v>4000</v>
       </c>
       <c r="K20" s="11"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="50"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="51" t="s">
-        <v>168</v>
+      <c r="N20" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -8550,25 +8692,25 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>4000</v>
       </c>
       <c r="K21" s="11"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="51" t="s">
-        <v>168</v>
+      <c r="N21" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -8581,12 +8723,12 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="50"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="51"/>
+      <c r="L22" s="50"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="50"/>
       <c r="O22" s="11"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:15">
@@ -8598,12 +8740,12 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="50"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="11"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:15">
@@ -8618,9 +8760,9 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="51"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="11"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
@@ -8638,11 +8780,11 @@
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="65"/>
+      <c r="O25" s="63"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -8657,18 +8799,18 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="66"/>
+      <c r="O26" s="64"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:15">
       <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>44</v>
@@ -8677,17 +8819,17 @@
         <v>46</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
+        <v>121</v>
+      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
       <c r="O27" s="28"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
@@ -8695,78 +8837,78 @@
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="57"/>
+        <v>197</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="57"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:15">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="57"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:15">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="57"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="30"/>
@@ -8783,11 +8925,11 @@
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
-      <c r="O32" s="67"/>
+      <c r="O32" s="65"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8809,27 +8951,27 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -8844,17 +8986,17 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -8869,7 +9011,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -8884,7 +9026,7 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -8894,20 +9036,20 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="69"/>
+      <c r="L37" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -8916,12 +9058,12 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="60"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="58"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:15">
       <c r="A39" s="32"/>
@@ -8929,18 +9071,18 @@
         <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -8956,12 +9098,12 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -8980,15 +9122,15 @@
       <c r="D41" s="36"/>
       <c r="E41" s="11"/>
       <c r="F41" s="35"/>
-      <c r="G41" s="48"/>
+      <c r="G41" s="47"/>
       <c r="H41" s="35"/>
-      <c r="I41" s="48"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="35"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
-      <c r="O41" s="48"/>
+      <c r="O41" s="47"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="37"/>
@@ -8997,32 +9139,32 @@
       <c r="D42" s="36"/>
       <c r="E42" s="11"/>
       <c r="F42" s="35"/>
-      <c r="G42" s="48"/>
+      <c r="G42" s="47"/>
       <c r="H42" s="35"/>
-      <c r="I42" s="48"/>
+      <c r="I42" s="47"/>
       <c r="J42" s="35"/>
-      <c r="K42" s="48"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="35"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="48"/>
+      <c r="O42" s="47"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -9039,13 +9181,13 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -9062,7 +9204,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -9077,7 +9219,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
@@ -9087,7 +9229,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
@@ -9098,7 +9240,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -9107,12 +9249,12 @@
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="60"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:15">
       <c r="A48" s="32"/>
@@ -9120,18 +9262,18 @@
         <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -9167,15 +9309,15 @@
       <c r="D50" s="36"/>
       <c r="E50" s="11"/>
       <c r="F50" s="35"/>
-      <c r="G50" s="48"/>
+      <c r="G50" s="47"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="48"/>
+      <c r="I50" s="47"/>
       <c r="J50" s="35"/>
-      <c r="K50" s="48"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="35"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="48"/>
+      <c r="O50" s="47"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:15">
       <c r="A51" s="37"/>
@@ -9184,15 +9326,15 @@
       <c r="D51" s="36"/>
       <c r="E51" s="11"/>
       <c r="F51" s="35"/>
-      <c r="G51" s="48"/>
+      <c r="G51" s="47"/>
       <c r="H51" s="35"/>
-      <c r="I51" s="48"/>
+      <c r="I51" s="47"/>
       <c r="J51" s="35"/>
-      <c r="K51" s="48"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="35"/>
       <c r="M51" s="36"/>
       <c r="N51" s="36"/>
-      <c r="O51" s="48"/>
+      <c r="O51" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="120">

--- a/code/backend/010.codegen/model/app.service.xlsx
+++ b/code/backend/010.codegen/model/app.service.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27645" windowHeight="12330" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="202">
   <si>
     <t>#变量名</t>
   </si>
@@ -277,9 +277,6 @@
     <t>seq</t>
   </si>
   <si>
-    <t>EID</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -508,7 +505,7 @@
     <t>appId</t>
   </si>
   <si>
-    <t>eid</t>
+    <t>id</t>
   </si>
   <si>
     <t>duzhou_app_dict</t>
@@ -642,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -676,24 +673,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,18 +689,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,17 +712,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,7 +736,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,15 +772,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,9 +788,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,7 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +903,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,139 +1035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,13 +1338,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,6 +1368,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1378,30 +1388,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1420,147 +1406,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2524,7 +2521,7 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13:G13"/>
     </sheetView>
   </sheetViews>
@@ -2863,7 +2860,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3090,12 +3087,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>30</v>
@@ -3116,10 +3113,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -3145,20 +3142,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3172,21 +3169,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -3205,26 +3202,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3240,17 +3237,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
@@ -3271,7 +3268,7 @@
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>5</v>
@@ -3279,7 +3276,7 @@
       <c r="F15" s="42"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>30</v>
@@ -3291,7 +3288,7 @@
       <c r="L15" s="51"/>
       <c r="M15" s="15"/>
       <c r="N15" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="61"/>
     </row>
@@ -3302,7 +3299,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>49</v>
@@ -3310,7 +3307,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>30</v>
@@ -3322,7 +3319,7 @@
       <c r="L16" s="51"/>
       <c r="M16" s="15"/>
       <c r="N16" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O16" s="61"/>
     </row>
@@ -3333,15 +3330,15 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>36</v>
@@ -3364,15 +3361,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>30</v>
@@ -3393,10 +3390,10 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="7" t="s">
@@ -3422,10 +3419,10 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
@@ -3449,15 +3446,15 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
       <c r="H21" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>30</v>
@@ -3478,7 +3475,7 @@
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>2</v>
@@ -3505,10 +3502,10 @@
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="7"/>
@@ -3532,10 +3529,10 @@
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="7"/>
@@ -3622,7 +3619,7 @@
     </row>
     <row r="29" s="4" customFormat="1" spans="1:15">
       <c r="A29" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3644,7 +3641,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="27" t="s">
@@ -3657,12 +3654,12 @@
         <v>46</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K30" s="55"/>
       <c r="L30" s="55"/>
@@ -3675,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
@@ -3684,7 +3681,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="56"/>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3785,19 +3782,19 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="7"/>
@@ -3814,13 +3811,13 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
@@ -3837,7 +3834,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -3873,7 +3870,7 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -3895,18 +3892,18 @@
         <v>23</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -3972,19 +3969,19 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="7"/>
@@ -4001,13 +3998,13 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="7"/>
@@ -4024,7 +4021,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4060,7 +4057,7 @@
     <row r="50" s="1" customFormat="1" spans="1:15">
       <c r="A50" s="32"/>
       <c r="B50" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
@@ -4082,18 +4079,18 @@
         <v>23</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -4289,8 +4286,8 @@
   <sheetPr/>
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4338,7 +4335,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -4346,7 +4343,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -4363,7 +4360,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -4386,7 +4383,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4409,7 +4406,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -4520,12 +4517,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>30</v>
@@ -4546,15 +4543,15 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>30</v>
@@ -4574,10 +4571,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -4585,7 +4582,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>30</v>
@@ -4597,7 +4594,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="15"/>
       <c r="N11" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="61"/>
     </row>
@@ -4608,7 +4605,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>49</v>
@@ -4616,7 +4613,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>30</v>
@@ -4628,7 +4625,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="15"/>
       <c r="N12" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O12" s="61"/>
     </row>
@@ -4639,7 +4636,7 @@
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
       <c r="D13" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -4655,7 +4652,7 @@
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="50"/>
@@ -4668,15 +4665,15 @@
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>30</v>
@@ -4686,7 +4683,7 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="50"/>
@@ -4699,10 +4696,10 @@
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
       <c r="D15" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="7"/>
@@ -4724,7 +4721,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>27</v>
@@ -4846,7 +4843,7 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:15">
       <c r="A23" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -4868,7 +4865,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="27" t="s">
@@ -4881,12 +4878,12 @@
         <v>46</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
       <c r="J24" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
@@ -4899,21 +4896,21 @@
         <v>1</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="56"/>
       <c r="J25" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5011,7 +5008,7 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7" t="s">
@@ -5019,15 +5016,15 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="7" t="s">
@@ -5046,17 +5043,17 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -5071,7 +5068,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -5100,7 +5097,7 @@
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M34" s="46"/>
       <c r="N34" s="46"/>
@@ -5109,7 +5106,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -5131,18 +5128,18 @@
         <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5158,12 +5155,12 @@
         <v>1</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -5212,19 +5209,19 @@
     <row r="40" s="1" customFormat="1" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="7"/>
@@ -5241,13 +5238,13 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -5264,7 +5261,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -5300,7 +5297,7 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -5322,18 +5319,18 @@
         <v>23</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -5529,8 +5526,8 @@
   <sheetPr/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5577,7 +5574,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -5585,7 +5582,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -5602,7 +5599,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -5625,7 +5622,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -5648,7 +5645,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -5759,12 +5756,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>30</v>
@@ -5785,15 +5782,15 @@
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="21"/>
       <c r="H10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="48" t="s">
         <v>30</v>
@@ -5813,10 +5810,10 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>5</v>
@@ -5824,7 +5821,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="48" t="s">
         <v>30</v>
@@ -5836,7 +5833,7 @@
       <c r="L11" s="51"/>
       <c r="M11" s="15"/>
       <c r="N11" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="61"/>
     </row>
@@ -5847,7 +5844,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>49</v>
@@ -5855,7 +5852,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="48" t="s">
         <v>30</v>
@@ -5867,7 +5864,7 @@
       <c r="L12" s="51"/>
       <c r="M12" s="15"/>
       <c r="N12" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O12" s="61"/>
     </row>
@@ -5878,15 +5875,15 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>30</v>
@@ -5907,15 +5904,15 @@
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
       <c r="D14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="F14" s="41"/>
       <c r="G14" s="7"/>
       <c r="H14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="48" t="s">
         <v>30</v>
@@ -5927,7 +5924,7 @@
       <c r="L14" s="50"/>
       <c r="M14" s="7"/>
       <c r="N14" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O14" s="11"/>
     </row>
@@ -6086,7 +6083,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:15">
       <c r="A24" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -6108,7 +6105,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="27" t="s">
@@ -6121,12 +6118,12 @@
         <v>46</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" s="55"/>
       <c r="L25" s="55"/>
@@ -6139,21 +6136,21 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="56"/>
       <c r="J26" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -6231,7 +6228,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -6251,7 +6248,7 @@
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
@@ -6259,15 +6256,15 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="7" t="s">
@@ -6286,17 +6283,17 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -6311,7 +6308,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -6340,7 +6337,7 @@
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
@@ -6349,7 +6346,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -6371,18 +6368,18 @@
         <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -6398,12 +6395,12 @@
         <v>1</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -6452,19 +6449,19 @@
     <row r="41" s="1" customFormat="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="7"/>
@@ -6481,13 +6478,13 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -6504,7 +6501,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -6540,7 +6537,7 @@
     <row r="45" s="1" customFormat="1" spans="1:15">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -6562,18 +6559,18 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -6769,8 +6766,8 @@
   <sheetPr/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6818,7 +6815,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -6826,7 +6823,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -6843,7 +6840,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -6866,7 +6863,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -6889,7 +6886,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -7000,12 +6997,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>30</v>
@@ -7026,10 +7023,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -7055,20 +7052,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -7082,21 +7079,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -7115,26 +7112,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -7150,17 +7147,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
@@ -7181,15 +7178,15 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>30</v>
@@ -7210,7 +7207,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -7218,7 +7215,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>30</v>
@@ -7239,7 +7236,7 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>49</v>
@@ -7247,7 +7244,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>30</v>
@@ -7259,7 +7256,7 @@
       <c r="L17" s="51"/>
       <c r="M17" s="15"/>
       <c r="N17" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O17" s="61"/>
     </row>
@@ -7270,15 +7267,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>36</v>
@@ -7301,10 +7298,10 @@
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="15"/>
@@ -7319,7 +7316,7 @@
       <c r="L19" s="51"/>
       <c r="M19" s="15"/>
       <c r="N19" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O19" s="61"/>
     </row>
@@ -7330,7 +7327,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>2</v>
@@ -7420,7 +7417,7 @@
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
       <c r="A25" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
@@ -7442,7 +7439,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="27" t="s">
@@ -7455,12 +7452,12 @@
         <v>46</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K26" s="55"/>
       <c r="L26" s="55"/>
@@ -7473,21 +7470,21 @@
         <v>1</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="56"/>
       <c r="J27" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
@@ -7565,7 +7562,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -7587,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7" t="s">
@@ -7595,15 +7592,15 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="7" t="s">
@@ -7622,17 +7619,17 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -7647,7 +7644,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -7676,7 +7673,7 @@
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M36" s="46"/>
       <c r="N36" s="46"/>
@@ -7685,7 +7682,7 @@
     <row r="37" s="1" customFormat="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -7707,18 +7704,18 @@
         <v>23</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -7734,12 +7731,12 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -7788,19 +7785,19 @@
     <row r="42" s="1" customFormat="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="7"/>
@@ -7823,7 +7820,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -7834,13 +7831,13 @@
     <row r="44" s="1" customFormat="1" spans="1:15">
       <c r="A44" s="32"/>
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -7876,7 +7873,7 @@
     <row r="46" s="1" customFormat="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -7898,18 +7895,18 @@
         <v>23</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -8105,8 +8102,8 @@
   <sheetPr/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8153,7 +8150,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -8161,7 +8158,7 @@
         <v>64</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -8178,7 +8175,7 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -8201,7 +8198,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -8224,7 +8221,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -8335,12 +8332,12 @@
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="7"/>
       <c r="H9" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>30</v>
@@ -8361,10 +8358,10 @@
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="7" t="s">
@@ -8390,20 +8387,20 @@
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
       <c r="D11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -8417,21 +8414,21 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>30</v>
@@ -8450,26 +8447,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -8485,17 +8482,17 @@
       <c r="B14" s="16"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="18" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>36</v>
@@ -8516,15 +8513,15 @@
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>187</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>188</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="21"/>
       <c r="H15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="48" t="s">
         <v>30</v>
@@ -8545,7 +8542,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>5</v>
@@ -8553,7 +8550,7 @@
       <c r="F16" s="42"/>
       <c r="G16" s="15"/>
       <c r="H16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="48" t="s">
         <v>30</v>
@@ -8574,15 +8571,15 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="15"/>
       <c r="H17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>30</v>
@@ -8603,15 +8600,15 @@
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="15"/>
       <c r="H18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="48" t="s">
         <v>30</v>
@@ -8632,7 +8629,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
       <c r="D19" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -8640,7 +8637,7 @@
       <c r="F19" s="41"/>
       <c r="G19" s="7"/>
       <c r="H19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>30</v>
@@ -8652,7 +8649,7 @@
       <c r="L19" s="50"/>
       <c r="M19" s="7"/>
       <c r="N19" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O19" s="11"/>
     </row>
@@ -8663,10 +8660,10 @@
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="7"/>
@@ -8681,7 +8678,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="7"/>
       <c r="N20" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O20" s="11"/>
     </row>
@@ -8692,10 +8689,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
       <c r="D21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="7"/>
@@ -8710,7 +8707,7 @@
       <c r="L21" s="50"/>
       <c r="M21" s="7"/>
       <c r="N21" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O21" s="11"/>
     </row>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="26" s="4" customFormat="1" spans="1:15">
       <c r="A26" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -8806,7 +8803,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="27" t="s">
@@ -8819,12 +8816,12 @@
         <v>46</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
       <c r="J27" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K27" s="55"/>
       <c r="L27" s="55"/>
@@ -8837,21 +8834,21 @@
         <v>1</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H28" s="46"/>
       <c r="I28" s="56"/>
       <c r="J28" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K28" s="46"/>
       <c r="L28" s="46"/>
@@ -8929,7 +8926,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -8951,27 +8948,27 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -8986,17 +8983,17 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -9011,7 +9008,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -9040,7 +9037,7 @@
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="46"/>
@@ -9049,7 +9046,7 @@
     <row r="38" s="1" customFormat="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -9071,18 +9068,18 @@
         <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -9098,12 +9095,12 @@
         <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -9152,19 +9149,19 @@
     <row r="43" s="1" customFormat="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="7"/>
@@ -9181,13 +9178,13 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -9204,7 +9201,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -9240,7 +9237,7 @@
     <row r="47" s="1" customFormat="1" spans="1:15">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -9262,18 +9259,18 @@
         <v>23</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
